--- a/Part3/3.6&3.7/3.6&3.7.xlsx
+++ b/Part3/3.6&3.7/3.6&3.7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniepan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniepan/PycharmProjects/ese5190-2022-lab2-into-the-void-star/Part3/3.6&amp;3.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611502AA-85F1-734A-9382-30E462DB6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41952090-E2A6-AF4C-9730-DF13AF6E2E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{5651219C-5E5E-C845-970E-C74889145636}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
   <si>
     <t>ATIME=0xfe</t>
   </si>
@@ -344,6 +344,12 @@
   <si>
     <t>Color</t>
   </si>
+  <si>
+    <t>RxF0</t>
+  </si>
+  <si>
+    <t>Auto reload data after passing all bits</t>
+  </si>
 </sst>
 </file>
 
@@ -523,13 +529,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,14 +536,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,14 +549,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,15 +890,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC1001"/>
+  <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21:Y30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.3984375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="25" max="25" width="29" customWidth="1"/>
+    <col min="25" max="25" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -925,118 +933,118 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="13" t="s">
         <v>96</v>
       </c>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="15"/>
       <c r="Y2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="16" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="9"/>
+      <c r="AC2" s="6"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6">
+      <c r="E3" s="15"/>
+      <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="G3" s="15"/>
+      <c r="H3" s="21">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6">
+      <c r="I3" s="15"/>
+      <c r="J3" s="21">
         <v>4</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6">
+      <c r="K3" s="15"/>
+      <c r="L3" s="21">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6">
+      <c r="M3" s="15"/>
+      <c r="N3" s="21">
         <v>6</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6">
+      <c r="O3" s="15"/>
+      <c r="P3" s="21">
         <v>7</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="21">
         <v>8</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6">
+      <c r="S3" s="15"/>
+      <c r="T3" s="21">
         <v>9</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="6">
+      <c r="U3" s="15"/>
+      <c r="V3" s="21">
         <v>10</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
       <c r="Y3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="9"/>
+      <c r="AC3" s="6"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>1</v>
@@ -1098,62 +1106,62 @@
       <c r="W4" s="2">
         <v>20</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC4" s="9"/>
+      <c r="AC4" s="6"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="5"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="11" t="s">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="6"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1229,14 +1237,14 @@
         <v>76</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="11" t="s">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="9"/>
+      <c r="AC6" s="6"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
@@ -1310,14 +1318,14 @@
         <v>72</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="11" t="s">
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="9"/>
+      <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
@@ -1391,14 +1399,14 @@
         <v>68</v>
       </c>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AC8" s="9"/>
+      <c r="AC8" s="6"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1472,14 +1480,14 @@
         <v>64</v>
       </c>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="10" t="s">
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="9"/>
+      <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1553,12 +1561,12 @@
         <v>59</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -1637,7 +1645,7 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -1716,7 +1724,7 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1795,7 +1803,7 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1874,7 +1882,7 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1953,78 +1961,78 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -2032,78 +2040,78 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -2111,78 +2119,78 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="A18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="X18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -2190,170 +2198,170 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5"/>
+      <c r="A19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y19" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="X19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="15"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2418,19 +2426,21 @@
       <c r="X21" s="2">
         <v>0</v>
       </c>
-      <c r="Y21" s="5"/>
+      <c r="Y21" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2492,24 +2502,22 @@
       <c r="W22" s="2">
         <v>0</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y22" s="5"/>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2571,22 +2579,24 @@
       <c r="W23" s="2">
         <v>0</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5"/>
+      <c r="X23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2651,19 +2661,19 @@
       <c r="X24" s="2">
         <v>0</v>
       </c>
-      <c r="Y24" s="5"/>
+      <c r="Y24" s="15"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -2725,24 +2735,22 @@
       <c r="W25" s="2">
         <v>0</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y25" s="5"/>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2804,19 +2812,21 @@
       <c r="W26" s="2">
         <v>0</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5"/>
+      <c r="X26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="15"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -2884,16 +2894,16 @@
       <c r="X27" s="2">
         <v>0</v>
       </c>
-      <c r="Y27" s="5"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -2958,19 +2968,19 @@
       <c r="W28" s="2">
         <v>0</v>
       </c>
-      <c r="X28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="5"/>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -3035,50 +3045,96 @@
       <c r="W29" s="2">
         <v>0</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="5"/>
+      <c r="X29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3109,9 +3165,9 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3203,7 +3259,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3234,7 +3290,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -3349,6 +3405,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -3379,7 +3436,6 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="4"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -3419,7 +3475,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3450,7 +3506,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3482,7 +3538,7 @@
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3565,7 +3621,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="3"/>
+      <c r="X46" s="4"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -3627,7 +3683,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="X48" s="3"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -3668,21 +3724,21 @@
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -3851,7 +3907,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -33177,28 +33233,39 @@
       <c r="AB1001" s="1"/>
       <c r="AC1001" s="1"/>
     </row>
+    <row r="1002" spans="1:29" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+      <c r="AB1002" s="1"/>
+      <c r="AC1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y20:Y29"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="X1:X5"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -33208,6 +33275,26 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="Y21:Y30"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="X1:X5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
